--- a/data/trans_bre/P23_5_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_5_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>-3,27</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>-5,15</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,15</t>
+          <t>-6,79</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-58,69%</t>
+          <t>-68,86%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-76,18%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -642,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 4,9</t>
+          <t>-18,43; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 6,34</t>
+          <t>-21,57; 3,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,43; 2,03</t>
+          <t>-25,71; 2,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -666,6 +692,16 @@
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-9,43</t>
+          <t>-11,85</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,9%</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-51,3%</t>
         </is>
       </c>
     </row>
@@ -722,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 2,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-33,07; -1,75</t>
+          <t>-41,26; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,1; 2,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -746,6 +792,16 @@
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>-3,34</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,43</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-33,01%</t>
+          <t>-6,06</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-46,59%</t>
+          <t>-47,6%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>25,16%</t>
+          <t>-29,75%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,17%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-87,26%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 2,51</t>
+          <t>-12,22; 3,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 2,33</t>
+          <t>-10,86; 4,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 6,16</t>
+          <t>-9,14; 7,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-83,89; 157,65</t>
+          <t>-15,56; -0,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-91,15; 153,89</t>
+          <t>-91,84; 156,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-78,88; 505,25</t>
+          <t>-98,18; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>6,03</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,97</t>
+          <t>3,42</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>47,6%</t>
+          <t>4,51</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>22,89%</t>
+          <t>151,18%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>149,88%</t>
+          <t>33,21%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>64,07%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>69,37%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 7,3</t>
+          <t>-1,31; 13,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 6,31</t>
+          <t>-5,89; 8,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,08; 10,04</t>
+          <t>-4,15; 11,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-46,77; 336,34</t>
+          <t>-4,23; 12,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-54,61; 325,57</t>
+          <t>-36,38; 1013,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,83; 892,92</t>
+          <t>-68,46; 497,55</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-52,42; 655,82</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-48,43; 465,88</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>-5,38</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,94</t>
+          <t>-2,53</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-38,81%</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-16,45%</t>
+          <t>-52,62%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-41,01%</t>
+          <t>-39,14%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-58,96%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-14,25%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 2,55</t>
+          <t>-8,1; 3,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,94; 6,05</t>
+          <t>-30,79; 6,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 2,79</t>
+          <t>-9,42; 2,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 211,34</t>
+          <t>-19,23; 10,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-92,82; 195,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 151,74</t>
+          <t>-100,0; 149,94</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 238,54</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,54</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>469,65%</t>
+          <t>5,34</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>83,81%</t>
+          <t>175,5%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>51,49%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-61,08%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>224,52%</t>
         </is>
       </c>
     </row>
@@ -1042,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 18,1</t>
+          <t>-4,8; 13,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 8,01</t>
+          <t>0,0; 15,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 6,07</t>
+          <t>-13,03; 2,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,02; 14,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1066,6 +1192,16 @@
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>-3,54</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>23,2%</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-30,22%</t>
+          <t>16,65%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>21,71%</t>
+          <t>-45,82%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-15,22%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1,63%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 3,15</t>
+          <t>-2,08; 3,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 1,12</t>
+          <t>-11,68; 0,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 2,87</t>
+          <t>-4,3; 2,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-33,03; 142,86</t>
+          <t>-4,04; 3,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-64,11; 31,97</t>
+          <t>-43,75; 154,65</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-35,0; 130,6</t>
+          <t>-80,43; 22,53</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-61,33; 82,98</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-49,89; 117,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P23_5_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_5_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,149 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-3,27</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-5,15</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-6,79</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-68,86%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-76,18%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>-2.898418357087005</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-5.889517134763294</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-6.84824357959428</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.72272746290569</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.7711246452763125</v>
+      </c>
+      <c r="J4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-18,43; 0,0</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-21,57; 3,32</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-25,71; 2,19</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-16.49641140280002</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-23.87477056573959</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-25.48323023653139</v>
+      </c>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>2.743423440935235</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2.112397214151186</v>
+      </c>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-11,85</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-1,51</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-51,3%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-41,26; 0,0</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-14,1; 2,96</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-10.17555995008411</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.700070355032761</v>
+      </c>
+      <c r="G7" s="6" t="inlineStr"/>
+      <c r="H7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="6" t="inlineStr"/>
+      <c r="J7" s="6" t="n">
+        <v>-0.3416296630864936</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-3,34</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,71</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,01</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-6,06</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-47,6%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-29,75%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-0,17%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-87,26%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="n">
+        <v>-37.01052169275905</v>
+      </c>
+      <c r="E8" s="5" t="inlineStr"/>
+      <c r="F8" s="5" t="n">
+        <v>-9.770920371881134</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-12,22; 3,06</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-10,86; 4,6</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-9,14; 7,27</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-15,56; -0,55</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-91,84; 156,02</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-98,18; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5" t="inlineStr"/>
+      <c r="F9" s="5" t="n">
+        <v>2.824404247338144</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +777,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>6,03</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,74</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,42</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>4,51</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>151,18%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>33,21%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>64,07%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>69,37%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-1.989159121105808</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.586948243609496</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.5602821196362247</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-5.9326371922367</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.3260865312899318</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.2647004235201025</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.09896069578231691</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.8777224127966182</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,31; 13,9</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-5,89; 8,8</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-4,15; 11,37</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-4,23; 12,68</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-36,38; 1013,94</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-68,46; 497,55</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-52,42; 655,82</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-48,43; 465,88</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-10.19921928903195</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-11.37027322913225</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-8.385947661502827</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-15.29069399401014</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.9043989933991206</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.9926138025555011</v>
+      </c>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>4.694317289617481</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>5.091092932274353</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>8.025365251665402</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-0.6118502742725849</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>2.438854866346076</v>
+      </c>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-2,26</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-5,38</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-2,53</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-1,69</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-52,62%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-39,14%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-58,96%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-14,25%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-8,1; 3,64</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-30,79; 6,14</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-9,42; 2,75</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-19,23; 10,33</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 149,94</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 238,54</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>6.53504109075318</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.708335164729513</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>3.112020400983621</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>4.28300273813072</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>1.625329899714052</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.329650109835789</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.5794046475812233</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.6681266943372616</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>4,2</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>3,02</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-2,88</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>5,34</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>175,5%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-61,08%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>224,52%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.9899957792898398</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-5.648479550499713</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-4.309849403112757</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-4.158812142097051</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.3130310814959163</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.6821597157652051</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.5432365037019219</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.5210511462433561</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-4,8; 13,07</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 15,18</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-13,03; 2,19</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-2,02; 14,58</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>15.60804662332293</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>8.745077117324094</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>11.31310247342885</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>12.50602572344853</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>11.54648531281047</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>5.242203112665879</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>6.115385098856519</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>4.222958516662398</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +967,275 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0,59</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-3,54</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-0,72</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,08</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>16,65%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-45,82%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>-15,22%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>1,63%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-3.081054019493653</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-4.701691634586123</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-2.316274972149918</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-1.501502867495702</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>-0.5919189758621766</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>-0.3443728687688146</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>-0.5793345951465247</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>-0.1251780097452833</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-2,08; 3,32</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-11,68; 0,96</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-4,3; 2,37</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-4,04; 3,51</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-43,75; 154,65</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-80,43; 22,53</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-61,33; 82,98</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-49,89; 117,43</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-11.98678561892005</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-31.62682966639038</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-8.767494432495775</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-19.45169669077159</v>
+      </c>
+      <c r="G17" s="6" t="inlineStr"/>
+      <c r="H17" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I17" s="6" t="inlineStr"/>
+      <c r="J17" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>2.738337633499447</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>7.338644410219033</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>3.044620929547651</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>10.59631096443724</v>
+      </c>
+      <c r="G18" s="6" t="inlineStr"/>
+      <c r="H18" s="6" t="n">
+        <v>1.831087039800622</v>
+      </c>
+      <c r="I18" s="6" t="inlineStr"/>
+      <c r="J18" s="6" t="n">
+        <v>2.306991533220143</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>4.302291541907682</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>3.959581010901404</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-2.867118905787257</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>6.1870096952169</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>1.938625152730461</v>
+      </c>
+      <c r="H19" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>-0.6205780629039123</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>2.975106778298114</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-3.313098208689386</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-12.8529525041927</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-0.9028256710876417</v>
+      </c>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr"/>
+      <c r="I20" s="6" t="inlineStr"/>
+      <c r="J20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>13.45852495870616</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>19.31533969050366</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>2.07405034156761</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>16.68031943574479</v>
+      </c>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr"/>
+      <c r="I21" s="6" t="inlineStr"/>
+      <c r="J21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.9277372492385596</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-3.113065680704137</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-0.6518047972943024</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.33156156356412</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.267798083347495</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>-0.4129481153280672</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>-0.1397247396753738</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.0678106487491025</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-1.882665344695639</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-10.49036226213803</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-4.235796528629067</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-3.604461203109509</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.4111418338151622</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.7620768068613819</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.6084456929574233</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.4841271117739313</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>3.709515941979203</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1.262498157678616</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>2.382522891169741</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>3.72669947425562</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>1.769218139459232</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.327707399169996</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>0.8831969775214981</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>1.290906899427849</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1243,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
